--- a/SeleniumProjectDemo/src/test/resources/testdata.xlsx
+++ b/SeleniumProjectDemo/src/test/resources/testdata.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anura\eclipse-workspace\SeleniumProjectDemo\src\test\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anura\git\SeleniumProjectRepo\SeleniumProjectDemo\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A45D5CD0-B0AC-4076-93DB-1D5236D36833}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E2D871D-7BAE-4250-9161-870D27F1D636}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{1C0BE936-F10D-4E4C-AC03-2EB18AD8F408}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="8">
   <si>
     <t>Username</t>
   </si>
@@ -408,7 +408,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -441,16 +441,16 @@
       <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="B4">
-        <v>12345</v>
+      <c r="B4" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
-      <c r="B5">
-        <v>12345</v>
+      <c r="B5" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
